--- a/SCH-STH/Impact assessments/Benin/2023/bj_sch_sth_impact_202304_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2023/bj_sch_sth_impact_202304_3_kato_katz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Benin\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD8EFCF-AB90-4F99-8D93-A126E700802D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E4E05B-8244-4023-B6B0-45691DD02848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -214,9 +214,6 @@
     <t>Entrez le code de l'enfant exactement tel qu'il a été généré dans le formulaire 2. Exemple: 123-123-A</t>
   </si>
   <si>
-    <t>bj_sch_sth_impact_202304_3_kato_katz</t>
-  </si>
-  <si>
     <t>k_sch_man_sb</t>
   </si>
   <si>
@@ -292,7 +289,10 @@
     <t>Schistosoma haematobium - Superviseur</t>
   </si>
   <si>
-    <t>(2023 Avril) - 3. SCH/STH - Kato Katz</t>
+    <t>(2023 Avril) - 3. SCH/STH - Kato Katz V1</t>
+  </si>
+  <si>
+    <t>bj_sch_sth_impact_202304_3_kato_katz_v1</t>
   </si>
 </sst>
 </file>
@@ -849,23 +849,23 @@
       <selection pane="bottomRight" activeCell="J20" sqref="J20:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.75" style="19" customWidth="1"/>
+    <col min="1" max="1" width="19.59765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" style="19" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="47.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="47.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="16.8984375" style="19" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="9.75" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="36.625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="9.69921875" customWidth="1"/>
+    <col min="11" max="11" width="13.8984375" customWidth="1"/>
+    <col min="12" max="12" width="36.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" ht="18.75">
+    <row r="1" spans="1:12" s="17" customFormat="1" ht="18">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -903,7 +903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="17" customFormat="1" ht="31.5">
+    <row r="2" spans="1:12" s="17" customFormat="1" ht="31.2">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="18" customFormat="1" ht="47.25">
+    <row r="7" spans="1:12" s="18" customFormat="1" ht="46.8">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="29"/>
@@ -1080,10 +1080,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="29"/>
@@ -1102,10 +1102,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="29"/>
@@ -1125,7 +1125,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="29"/>
@@ -1144,10 +1144,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="29"/>
@@ -1166,10 +1166,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="29"/>
@@ -1189,7 +1189,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="29"/>
@@ -1208,10 +1208,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="29"/>
@@ -1230,10 +1230,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="29"/>
@@ -1253,7 +1253,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="29"/>
@@ -1272,10 +1272,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="29"/>
@@ -1294,10 +1294,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="29"/>
@@ -1317,7 +1317,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="29"/>
@@ -1334,10 +1334,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="29"/>
@@ -1354,10 +1354,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="29"/>
@@ -1438,11 +1438,11 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.09765625" style="4" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1577,13 +1577,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="1" max="1" width="44.09765625" customWidth="1"/>
+    <col min="2" max="2" width="38.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1599,10 +1599,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
